--- a/AQUACULTURE/STATUSING/statusing_rules.xlsx
+++ b/AQUACULTURE/STATUSING/statusing_rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spatialfiles.bcgov\Work\lwbc\visr\Workarea\moez_labiadh\WORKSPACE\20221124_aquaWildPlants_2023_newApps\statusing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spatialfiles.bcgov\Work\lwbc\visr\Workarea\moez_labiadh\WORKSPACE_2024\20240605_aquaPlants_new_2024_harvestAreas\New 2024 harvest areas\statusing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC023F9-E7E2-49D2-BC36-DE784A03ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695C16C-0F55-41A5-B970-33405E2DC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{75286831-421D-4849-B4F4-021A3164399E}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{75286831-421D-4849-B4F4-021A3164399E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>WHSE_TANTALIS.TA_WILDLIFE_MGMT_AREAS_SVW</t>
   </si>
   <si>
-    <t>\\spatialfiles.bcgov\Work\lwbc\visr\Workarea\moez_labiadh\WORKSPACE\20211018_aquaPlants_dfo\2022HarvestAreas_mapping\harvest_areas_working.gdb\other_datasets\aoi_DFO_ROCKFISH_CONS_AREA_SVW_2020</t>
-  </si>
-  <si>
     <t>Rockfish Conservation Areas</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>b.PROTECTED_LANDS_NAME not like '%MARINE%'</t>
+  </si>
+  <si>
+    <t>\\spatialfiles.bcgov\Work\lwbc\visr\Workarea\moez_labiadh\DATASETS\aquaculture\aquaPlants_wildHarvest.gdb\DFO_ROCKFISH_CONS_AREA_SVW_2020</t>
   </si>
 </sst>
 </file>
@@ -387,9 +387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,7 +427,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,7 +533,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -821,14 +821,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" customWidth="1"/>
-    <col min="3" max="3" width="102" customWidth="1"/>
+    <col min="3" max="3" width="132.140625" customWidth="1"/>
     <col min="4" max="4" width="123.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -854,10 +854,10 @@
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +879,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,31 +909,31 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -941,11 +941,11 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,11 +953,11 @@
         <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,11 +965,11 @@
         <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,22 +977,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{723AF29A-80DE-43CE-9488-12B6DCF0CF3C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1034,10 +1031,10 @@
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1048,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,13 +1056,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,7 +1074,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,19 +1086,19 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1109,11 +1106,11 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,11 +1118,11 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,11 +1130,11 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,11 +1142,11 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
